--- a/FinalProject/Paper Checklist.xlsx
+++ b/FinalProject/Paper Checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbry1\OneDrive\Documents\DScourseS20\FinalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbry1\OneDrive\Documents\- Git Hub Repo Locations\DScourseS20\FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC85D27-287A-4CDD-B772-6DD744BE3C11}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BB527C-500A-412E-A093-50EBBBB9F627}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3FC6F9B4-8B96-4F33-AA30-D65BAB77C244}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Category / Description</t>
   </si>
@@ -119,7 +119,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="_(* #,##0_);[Red]_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);[Red]_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -296,9 +296,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -320,6 +319,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,15 +656,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20811E48-EE19-4D1D-9A8C-CC3528001D3D}">
   <dimension ref="B2:E25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="82.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="82.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="2.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
@@ -677,200 +681,218 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="E3" s="11"/>
+      <c r="C3" s="6"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>20</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>10</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="8">
-        <v>5</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="8">
-        <v>5</v>
-      </c>
-      <c r="E7" s="12" t="s">
+      <c r="C7" s="7">
+        <v>5</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="E8" s="12"/>
+      <c r="C8" s="7"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>10</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="8">
-        <v>5</v>
-      </c>
-      <c r="E10" s="12"/>
+      <c r="C10" s="7">
+        <v>5</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>10</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="8">
-        <v>5</v>
-      </c>
-      <c r="E12" s="12"/>
+      <c r="C12" s="7">
+        <v>5</v>
+      </c>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>10</v>
       </c>
-      <c r="E13" s="12"/>
+      <c r="E13" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>10</v>
       </c>
-      <c r="E14" s="12"/>
+      <c r="E14" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>10</v>
       </c>
-      <c r="E15" s="12"/>
+      <c r="E15" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>10</v>
       </c>
-      <c r="E16" s="12"/>
+      <c r="E16" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>10</v>
       </c>
-      <c r="E17" s="12"/>
+      <c r="E17" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="E18" s="12"/>
+      <c r="C18" s="7"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="8">
-        <v>5</v>
-      </c>
-      <c r="E19" s="12"/>
+      <c r="C19" s="7">
+        <v>5</v>
+      </c>
+      <c r="E19" s="11"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="8">
-        <v>5</v>
-      </c>
-      <c r="E20" s="12"/>
+      <c r="C20" s="7">
+        <v>5</v>
+      </c>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="8">
-        <v>5</v>
-      </c>
-      <c r="E21" s="12"/>
+      <c r="C21" s="7">
+        <v>5</v>
+      </c>
+      <c r="E21" s="11"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="8">
-        <v>5</v>
-      </c>
-      <c r="E22" s="12"/>
+      <c r="C22" s="7">
+        <v>5</v>
+      </c>
+      <c r="E22" s="11"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="8">
-        <v>5</v>
-      </c>
-      <c r="E23" s="12"/>
+      <c r="C23" s="7">
+        <v>5</v>
+      </c>
+      <c r="E23" s="11"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="6">
-        <v>5</v>
-      </c>
-      <c r="E24" s="13"/>
+      <c r="C24" s="5">
+        <v>5</v>
+      </c>
+      <c r="E24" s="12"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
@@ -879,13 +901,13 @@
       <c r="C25" s="3">
         <v>150</v>
       </c>
-      <c r="E25" s="4">
-        <f>SUMIFS(C3:C24,E3:E24,"x")</f>
-        <v>10</v>
+      <c r="E25" s="15" t="str">
+        <f>SUMIFS(C3:C24,E3:E24,"x") &amp; " | " &amp; TEXT(SUMIFS(C3:C24,E3:E24,"x") / C25,"#.0%")</f>
+        <v>95 | 63.3%</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:E25">
+  <conditionalFormatting sqref="B3:E24">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>ISTEXT($E3)</formula>
     </cfRule>
